--- a/src/main/resources/Template.xlsx
+++ b/src/main/resources/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/nbouchba_emeal_nttdata_com/Documents/Documents/Peer review Tim Ra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcherkao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{DE255CB5-B50D-4565-B1EE-5E1BD64EC3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EC8574B-62AE-411A-8986-8A88C4FFB550}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D82142C-A789-4E3B-960D-87C1885275D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>Type of Information:</t>
   </si>
@@ -131,9 +131,15 @@
     <t>Customer</t>
   </si>
   <si>
+    <t>TIM</t>
+  </si>
+  <si>
     <t>Application</t>
   </si>
   <si>
+    <t>TIM RA</t>
+  </si>
+  <si>
     <t>Petition</t>
   </si>
   <si>
@@ -146,15 +152,24 @@
     <t>Reviewer</t>
   </si>
   <si>
+    <t>Kamal Cherkaoui</t>
+  </si>
+  <si>
     <t>Review report</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
     <t>Center</t>
   </si>
   <si>
+    <t>Tetouan</t>
+  </si>
+  <si>
     <t>CRITERIA FOR APPROACHING PEER REVIEW</t>
   </si>
   <si>
@@ -176,6 +191,9 @@
     <t>Corrective action</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -227,112 +245,91 @@
     <t>Correct action taken from the cable (when necessary)</t>
   </si>
   <si>
-    <t>TIM</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Data Extraction from Database/Portal</t>
-  </si>
-  <si>
-    <t>Is the data extraction process correctly described in the client’s document?</t>
-  </si>
-  <si>
-    <t>Was the correct database/portal used for data extraction?</t>
-  </si>
-  <si>
-    <t>Were all necessary credentials or access permissions verified before starting the extraction?</t>
-  </si>
-  <si>
-    <t>Is the extracted data complete and aligned with the client's request?</t>
-  </si>
-  <si>
-    <t>Was the extraction method (e.g., queries, filters) followed as per the client’s instructions?</t>
-  </si>
-  <si>
-    <t>Were there any errors or discrepancies in the extracted data?</t>
-  </si>
-  <si>
-    <t>Was the extracted data checked for accuracy before proceeding?</t>
-  </si>
-  <si>
-    <t>Data Entry into Excel Template</t>
-  </si>
-  <si>
-    <t>Final Review of Excel File</t>
-  </si>
-  <si>
-    <t>Sending the Excel Report</t>
-  </si>
-  <si>
-    <t>Was the correct Excel template provided or used for data entry?</t>
-  </si>
-  <si>
-    <t>Were the extracted data correctly mapped to the appropriate fields in the Excel file?</t>
-  </si>
-  <si>
-    <t>Did the Excel file maintain the correct formatting and structure?</t>
-  </si>
-  <si>
-    <t>Were any necessary formulas, calculations, or functions correctly applied?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Were there any missing data or incorrect entries in the Excel file? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Were any outliers or special cases in the data handled appropriately? </t>
-  </si>
-  <si>
-    <t>Is the final Excel file accurate and free from errors?</t>
-  </si>
-  <si>
-    <t>Does the Excel file match the requirements set by the client?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the file clearly organized, with consistent formatting (e.g., dates, currency, headers)? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was the file saved in the correct format (e.g., .xlsx)? </t>
-  </si>
-  <si>
-    <t>Does the Excel file open properly without any corruption or issues?</t>
-  </si>
-  <si>
-    <t>Was the correct version of the Excel file attached to the email?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did the email clearly explain the purpose and contents of the Excel file? </t>
-  </si>
-  <si>
-    <t>Was the email addressed to the correct recipient(s)?</t>
-  </si>
-  <si>
-    <t>Were any necessary follow-up actions or instructions included in the email?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was the Excel file sent within the agreed-upon timeframe? </t>
-  </si>
-  <si>
-    <t>Noura Bouchbaat</t>
-  </si>
-  <si>
-    <t>TIM RA</t>
-  </si>
-  <si>
-    <t>Data Processing</t>
-  </si>
-  <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
-    <t>Tetouan</t>
-  </si>
-  <si>
-    <t>TIMITA-389</t>
-  </si>
-  <si>
-    <t>Omayma Mechtat</t>
+    <t>App development</t>
+  </si>
+  <si>
+    <t>TIMITA-6616</t>
+  </si>
+  <si>
+    <t>General Standards</t>
+  </si>
+  <si>
+    <t>Is the code clean and readable, with no unused imports, no duplicated logic, and proper use of reusable functions?</t>
+  </si>
+  <si>
+    <t>Does the code follow the team’s architectural guidelines?</t>
+  </si>
+  <si>
+    <t>Is there a clear description of the problem and the implemented solution?</t>
+  </si>
+  <si>
+    <t>Are inline comments added where logic is complex?</t>
+  </si>
+  <si>
+    <t>Were all test cases executed and documented, and were edge cases properly reviewed?</t>
+  </si>
+  <si>
+    <t>Was no regression introduced, and were QA notes reviewed if applicable?</t>
+  </si>
+  <si>
+    <t>Is the solution aligned with the requirements of the ticket/task?</t>
+  </si>
+  <si>
+    <t>Functional Requirements</t>
+  </si>
+  <si>
+    <t>Does the implementation correctly fulfill all functional requirements stated in the task?</t>
+  </si>
+  <si>
+    <t>Are inputs correctly validated and handled (nulls, data formats, constraints, etc.)?</t>
+  </si>
+  <si>
+    <t>Are edge cases, error scenarios, and boundary values considered?</t>
+  </si>
+  <si>
+    <t>Does the implementation avoid hard-coded parameters that should be configurable?</t>
+  </si>
+  <si>
+    <t>Does the logic avoid breaking existing functionalities or dependencies?</t>
+  </si>
+  <si>
+    <t>Is the behavior tested with realistic scenarios and different data sets?</t>
+  </si>
+  <si>
+    <t>Non-Functional Requirements</t>
+  </si>
+  <si>
+    <t>Is the performance of the implementation acceptable (no unnecessary loops, joins, heavy operations)?</t>
+  </si>
+  <si>
+    <t>Is the solution optimized for its environment (API, SQL, Spark/Databricks, etc.)?</t>
+  </si>
+  <si>
+    <t>Is error handling properly implemented with clear and informative messages?</t>
+  </si>
+  <si>
+    <t>Are logs placed at the appropriate level and free of sensitive information?</t>
+  </si>
+  <si>
+    <t>Are security constraints respected (permissions, roles, data confidentiality)?</t>
+  </si>
+  <si>
+    <t>Deployment &amp; Delivery Requirements</t>
+  </si>
+  <si>
+    <t>Are all dependencies, configurations, or external resources documented and up to date?</t>
+  </si>
+  <si>
+    <t>Are configuration files, pipelines, or job schedules updated if required?</t>
+  </si>
+  <si>
+    <t>Is the impact on other systems (downstream jobs, APIs, tables…) checked and validated?</t>
+  </si>
+  <si>
+    <t>Was the task tested end-to-end before requesting a review or merge?</t>
+  </si>
+  <si>
+    <t>Is the final version ready to be merged or delivered according to team standards?</t>
   </si>
 </sst>
 </file>
@@ -1219,26 +1216,35 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1262,20 +1268,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2085,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B6:S89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:Q21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="90" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2132,22 +2129,22 @@
       <c r="C7" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
+      <c r="D7" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
       <c r="R7" s="74"/>
       <c r="S7" s="74"/>
     </row>
@@ -2172,24 +2169,24 @@
     </row>
     <row r="9" spans="3:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
+        <v>22</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
       <c r="R9" s="74"/>
       <c r="S9" s="74"/>
     </row>
@@ -2214,24 +2211,24 @@
     </row>
     <row r="11" spans="3:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
       <c r="R11" s="74"/>
       <c r="S11" s="74"/>
     </row>
@@ -2256,24 +2253,24 @@
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
       <c r="R13" s="74"/>
       <c r="S13" s="74"/>
     </row>
@@ -2298,24 +2295,24 @@
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
+        <v>26</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
       <c r="R15" s="74"/>
       <c r="S15" s="74"/>
     </row>
@@ -2340,24 +2337,24 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C17" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
+        <v>27</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
       <c r="R17" s="74"/>
       <c r="S17" s="74"/>
     </row>
@@ -2382,24 +2379,24 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C19" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="101">
-        <v>45993</v>
-      </c>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
+        <v>29</v>
+      </c>
+      <c r="D19" s="104">
+        <v>46000</v>
+      </c>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
       <c r="R19" s="74"/>
       <c r="S19" s="74"/>
     </row>
@@ -2424,24 +2421,24 @@
     </row>
     <row r="21" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="106"/>
+        <v>30</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="109"/>
       <c r="R21" s="74"/>
       <c r="S21" s="74"/>
     </row>
@@ -2466,24 +2463,24 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
+        <v>32</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="103"/>
       <c r="R23" s="74"/>
       <c r="S23" s="74"/>
     </row>
@@ -2508,54 +2505,54 @@
     </row>
     <row r="25" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
+      <c r="B26" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
     </row>
     <row r="28" spans="2:19" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B28" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
+      <c r="B28" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
       <c r="G28" s="72" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="72" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="72" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
+      <c r="M28" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="73" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R28" s="73"/>
       <c r="S28" s="73"/>
@@ -2564,10 +2561,10 @@
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -2584,12 +2581,12 @@
       <c r="S30" s="28"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
+      <c r="B31" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
@@ -2625,31 +2622,31 @@
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
     </row>
-    <row r="33" spans="2:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23">
         <v>1</v>
       </c>
-      <c r="C33" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
+      <c r="C33" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
       <c r="F33" s="30"/>
       <c r="G33" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="31"/>
       <c r="J33" s="22"/>
       <c r="K33" s="31"/>
       <c r="L33" s="30"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="97"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="96"/>
       <c r="P33" s="30"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="97"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="96"/>
     </row>
     <row r="34" spans="2:19" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="23"/>
@@ -2671,31 +2668,31 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="2:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="23">
         <v>2</v>
       </c>
-      <c r="C35" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
+      <c r="C35" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
       <c r="F35" s="30"/>
       <c r="G35" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="31"/>
       <c r="J35" s="22"/>
       <c r="K35" s="31"/>
       <c r="L35" s="30"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="97"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="96"/>
       <c r="P35" s="30"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="97"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="96"/>
     </row>
     <row r="36" spans="2:19" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="23"/>
@@ -2721,27 +2718,27 @@
       <c r="B37" s="23">
         <v>3</v>
       </c>
-      <c r="C37" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
+      <c r="C37" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
       <c r="F37" s="30"/>
       <c r="G37" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="31"/>
       <c r="J37" s="22"/>
       <c r="K37" s="31"/>
       <c r="L37" s="30"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="97"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="96"/>
       <c r="P37" s="30"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="97"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="96"/>
     </row>
     <row r="38" spans="2:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23"/>
@@ -2767,33 +2764,33 @@
       <c r="B39" s="23">
         <v>4</v>
       </c>
-      <c r="C39" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
+      <c r="C39" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="30"/>
       <c r="G39" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="31"/>
       <c r="J39" s="22"/>
       <c r="K39" s="31"/>
       <c r="L39" s="30"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="97"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="96"/>
       <c r="P39" s="30"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="97"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="96"/>
     </row>
     <row r="40" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
       <c r="F40" s="30"/>
       <c r="G40" s="32"/>
       <c r="H40" s="22"/>
@@ -2813,27 +2810,27 @@
       <c r="B41" s="23">
         <v>5</v>
       </c>
-      <c r="C41" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
+      <c r="C41" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="30"/>
       <c r="G41" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="31"/>
       <c r="J41" s="22"/>
       <c r="K41" s="31"/>
       <c r="L41" s="30"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="97"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="96"/>
       <c r="P41" s="30"/>
-      <c r="Q41" s="95"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="97"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="96"/>
     </row>
     <row r="42" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
@@ -2859,32 +2856,32 @@
       <c r="B43" s="23">
         <v>6</v>
       </c>
-      <c r="C43" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
+      <c r="C43" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
       <c r="F43" s="40"/>
       <c r="G43" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="31"/>
       <c r="J43" s="22"/>
       <c r="K43" s="31"/>
       <c r="L43" s="30"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="97"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="96"/>
       <c r="P43" s="30"/>
-      <c r="Q43" s="95"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="97"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="96"/>
     </row>
     <row r="44" spans="2:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
       <c r="F44" s="40"/>
       <c r="G44" s="32"/>
       <c r="H44" s="22"/>
@@ -2904,27 +2901,27 @@
       <c r="B45" s="23">
         <v>7</v>
       </c>
-      <c r="C45" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
+      <c r="C45" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
       <c r="F45" s="40"/>
       <c r="G45" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="31"/>
       <c r="J45" s="22"/>
       <c r="K45" s="31"/>
       <c r="L45" s="30"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="97"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="96"/>
       <c r="P45" s="30"/>
-      <c r="Q45" s="95"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="97"/>
+      <c r="Q45" s="94"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="96"/>
     </row>
     <row r="46" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
@@ -2947,12 +2944,12 @@
       <c r="S46" s="33"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B47" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
+      <c r="B47" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
       <c r="F47" s="35"/>
       <c r="G47" s="36"/>
       <c r="H47" s="37"/>
@@ -2960,19 +2957,19 @@
       <c r="J47" s="37"/>
       <c r="K47" s="36"/>
       <c r="L47" s="35"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
       <c r="P47" s="35"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="93"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="112"/>
+      <c r="S47" s="112"/>
     </row>
     <row r="48" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="23"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
       <c r="F48" s="40"/>
       <c r="G48" s="32"/>
       <c r="H48" s="22"/>
@@ -2988,37 +2985,37 @@
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="49" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="23">
         <v>8</v>
       </c>
-      <c r="C49" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
+      <c r="C49" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
       <c r="F49" s="40"/>
       <c r="G49" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H49" s="22"/>
       <c r="I49" s="31"/>
       <c r="J49" s="22"/>
       <c r="K49" s="31"/>
       <c r="L49" s="30"/>
-      <c r="M49" s="95"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="97"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="96"/>
       <c r="P49" s="30"/>
-      <c r="Q49" s="95"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="97"/>
+      <c r="Q49" s="94"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="96"/>
     </row>
     <row r="50" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="23"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
       <c r="F50" s="40"/>
       <c r="G50" s="32"/>
       <c r="H50" s="22"/>
@@ -3038,27 +3035,27 @@
       <c r="B51" s="23">
         <v>9</v>
       </c>
-      <c r="C51" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
+      <c r="C51" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
       <c r="F51" s="40"/>
       <c r="G51" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="31"/>
       <c r="J51" s="22"/>
       <c r="K51" s="31"/>
       <c r="L51" s="30"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="97"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="96"/>
       <c r="P51" s="30"/>
-      <c r="Q51" s="95"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="97"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="96"/>
     </row>
     <row r="52" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="30"/>
@@ -3084,27 +3081,27 @@
       <c r="B53" s="23">
         <v>10</v>
       </c>
-      <c r="C53" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
+      <c r="C53" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
       <c r="F53" s="30"/>
       <c r="G53" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H53" s="22"/>
       <c r="I53" s="31"/>
       <c r="J53" s="22"/>
       <c r="K53" s="31"/>
       <c r="L53" s="30"/>
-      <c r="M53" s="95"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="97"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="96"/>
       <c r="P53" s="30"/>
-      <c r="Q53" s="95"/>
-      <c r="R53" s="96"/>
-      <c r="S53" s="97"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="95"/>
+      <c r="S53" s="96"/>
     </row>
     <row r="54" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="30"/>
@@ -3130,27 +3127,27 @@
       <c r="B55" s="23">
         <v>11</v>
       </c>
-      <c r="C55" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
+      <c r="C55" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
       <c r="F55" s="30"/>
       <c r="G55" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H55" s="22"/>
       <c r="I55" s="31"/>
       <c r="J55" s="22"/>
       <c r="K55" s="31"/>
       <c r="L55" s="30"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="97"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="96"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="95"/>
-      <c r="R55" s="96"/>
-      <c r="S55" s="97"/>
+      <c r="Q55" s="94"/>
+      <c r="R55" s="95"/>
+      <c r="S55" s="96"/>
     </row>
     <row r="56" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="23"/>
@@ -3161,27 +3158,27 @@
       <c r="B57" s="23">
         <v>12</v>
       </c>
-      <c r="C57" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
+      <c r="C57" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
       <c r="F57" s="30"/>
       <c r="G57" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="31"/>
       <c r="J57" s="22"/>
       <c r="K57" s="31"/>
       <c r="L57" s="30"/>
-      <c r="M57" s="95"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="97"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="96"/>
       <c r="P57" s="30"/>
-      <c r="Q57" s="95"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="97"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="96"/>
     </row>
     <row r="58" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="23"/>
@@ -3207,27 +3204,27 @@
       <c r="B59" s="23">
         <v>13</v>
       </c>
-      <c r="C59" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
+      <c r="C59" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
       <c r="F59" s="30"/>
       <c r="G59" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="31"/>
       <c r="J59" s="22"/>
       <c r="K59" s="31"/>
       <c r="L59" s="30"/>
-      <c r="M59" s="95"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="97"/>
+      <c r="M59" s="94"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="96"/>
       <c r="P59" s="30"/>
-      <c r="Q59" s="95"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="97"/>
+      <c r="Q59" s="94"/>
+      <c r="R59" s="95"/>
+      <c r="S59" s="96"/>
     </row>
     <row r="60" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="23"/>
@@ -3250,12 +3247,12 @@
       <c r="S60" s="33"/>
     </row>
     <row r="61" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
+      <c r="B61" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
       <c r="F61" s="35"/>
       <c r="G61" s="36"/>
       <c r="H61" s="37"/>
@@ -3263,13 +3260,13 @@
       <c r="J61" s="37"/>
       <c r="K61" s="36"/>
       <c r="L61" s="35"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
       <c r="P61" s="35"/>
-      <c r="Q61" s="93"/>
-      <c r="R61" s="93"/>
-      <c r="S61" s="93"/>
+      <c r="Q61" s="112"/>
+      <c r="R61" s="112"/>
+      <c r="S61" s="112"/>
     </row>
     <row r="62" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="30"/>
@@ -3295,27 +3292,27 @@
       <c r="B63" s="23">
         <v>14</v>
       </c>
-      <c r="C63" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
+      <c r="C63" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
       <c r="F63" s="30"/>
       <c r="G63" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="31"/>
       <c r="J63" s="22"/>
       <c r="K63" s="31"/>
       <c r="L63" s="30"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="96"/>
-      <c r="O63" s="97"/>
+      <c r="M63" s="94"/>
+      <c r="N63" s="95"/>
+      <c r="O63" s="96"/>
       <c r="P63" s="30"/>
-      <c r="Q63" s="95"/>
-      <c r="R63" s="96"/>
-      <c r="S63" s="97"/>
+      <c r="Q63" s="94"/>
+      <c r="R63" s="95"/>
+      <c r="S63" s="96"/>
     </row>
     <row r="64" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="23"/>
@@ -3326,27 +3323,27 @@
       <c r="B65" s="23">
         <v>15</v>
       </c>
-      <c r="C65" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
+      <c r="C65" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="100"/>
+      <c r="E65" s="100"/>
       <c r="F65" s="30"/>
       <c r="G65" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H65" s="22"/>
       <c r="I65" s="31"/>
       <c r="J65" s="22"/>
       <c r="K65" s="31"/>
       <c r="L65" s="30"/>
-      <c r="M65" s="95"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="97"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="96"/>
       <c r="P65" s="30"/>
-      <c r="Q65" s="95"/>
-      <c r="R65" s="96"/>
-      <c r="S65" s="97"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="95"/>
+      <c r="S65" s="96"/>
     </row>
     <row r="66" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="30"/>
@@ -3372,27 +3369,27 @@
       <c r="B67" s="23">
         <v>16</v>
       </c>
-      <c r="C67" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
+      <c r="C67" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="100"/>
+      <c r="E67" s="100"/>
       <c r="F67" s="30"/>
       <c r="G67" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H67" s="22"/>
       <c r="I67" s="31"/>
       <c r="J67" s="22"/>
       <c r="K67" s="31"/>
       <c r="L67" s="30"/>
-      <c r="M67" s="95"/>
-      <c r="N67" s="96"/>
-      <c r="O67" s="97"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="95"/>
+      <c r="O67" s="96"/>
       <c r="P67" s="30"/>
-      <c r="Q67" s="95"/>
-      <c r="R67" s="96"/>
-      <c r="S67" s="97"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="95"/>
+      <c r="S67" s="96"/>
     </row>
     <row r="68" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="23"/>
@@ -3403,27 +3400,27 @@
       <c r="B69" s="23">
         <v>17</v>
       </c>
-      <c r="C69" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
+      <c r="C69" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
       <c r="F69" s="30"/>
       <c r="G69" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H69" s="22"/>
       <c r="I69" s="31"/>
       <c r="J69" s="22"/>
       <c r="K69" s="31"/>
       <c r="L69" s="30"/>
-      <c r="M69" s="95"/>
-      <c r="N69" s="96"/>
-      <c r="O69" s="97"/>
+      <c r="M69" s="94"/>
+      <c r="N69" s="95"/>
+      <c r="O69" s="96"/>
       <c r="P69" s="30"/>
-      <c r="Q69" s="95"/>
-      <c r="R69" s="96"/>
-      <c r="S69" s="97"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="95"/>
+      <c r="S69" s="96"/>
     </row>
     <row r="70" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="23"/>
@@ -3434,27 +3431,27 @@
       <c r="B71" s="23">
         <v>18</v>
       </c>
-      <c r="C71" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
+      <c r="C71" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
       <c r="F71" s="30"/>
       <c r="G71" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="31"/>
       <c r="J71" s="22"/>
       <c r="K71" s="31"/>
       <c r="L71" s="30"/>
-      <c r="M71" s="95"/>
-      <c r="N71" s="96"/>
-      <c r="O71" s="97"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="95"/>
+      <c r="O71" s="96"/>
       <c r="P71" s="30"/>
-      <c r="Q71" s="95"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="97"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="95"/>
+      <c r="S71" s="96"/>
     </row>
     <row r="72" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="23"/>
@@ -3477,12 +3474,12 @@
       <c r="S72" s="33"/>
     </row>
     <row r="73" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="98"/>
-      <c r="D73" s="98"/>
-      <c r="E73" s="98"/>
+      <c r="B73" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101"/>
       <c r="F73" s="35"/>
       <c r="G73" s="36"/>
       <c r="H73" s="37"/>
@@ -3490,13 +3487,13 @@
       <c r="J73" s="37"/>
       <c r="K73" s="36"/>
       <c r="L73" s="35"/>
-      <c r="M73" s="99"/>
-      <c r="N73" s="99"/>
-      <c r="O73" s="99"/>
+      <c r="M73" s="111"/>
+      <c r="N73" s="111"/>
+      <c r="O73" s="111"/>
       <c r="P73" s="35"/>
-      <c r="Q73" s="93"/>
-      <c r="R73" s="93"/>
-      <c r="S73" s="93"/>
+      <c r="Q73" s="112"/>
+      <c r="R73" s="112"/>
+      <c r="S73" s="112"/>
     </row>
     <row r="74" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="30"/>
@@ -3522,27 +3519,27 @@
       <c r="B75" s="23">
         <v>19</v>
       </c>
-      <c r="C75" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
+      <c r="C75" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="100"/>
+      <c r="E75" s="100"/>
       <c r="F75" s="30"/>
       <c r="G75" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="31"/>
       <c r="J75" s="22"/>
       <c r="K75" s="31"/>
       <c r="L75" s="30"/>
-      <c r="M75" s="95"/>
-      <c r="N75" s="96"/>
-      <c r="O75" s="97"/>
+      <c r="M75" s="94"/>
+      <c r="N75" s="95"/>
+      <c r="O75" s="96"/>
       <c r="P75" s="30"/>
-      <c r="Q75" s="95"/>
-      <c r="R75" s="96"/>
-      <c r="S75" s="97"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="95"/>
+      <c r="S75" s="96"/>
     </row>
     <row r="76" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="23"/>
@@ -3553,27 +3550,27 @@
       <c r="B77" s="23">
         <v>20</v>
       </c>
-      <c r="C77" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="94"/>
-      <c r="E77" s="94"/>
+      <c r="C77" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
       <c r="F77" s="30"/>
       <c r="G77" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H77" s="22"/>
       <c r="I77" s="31"/>
       <c r="J77" s="22"/>
       <c r="K77" s="31"/>
       <c r="L77" s="30"/>
-      <c r="M77" s="95"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="97"/>
+      <c r="M77" s="94"/>
+      <c r="N77" s="95"/>
+      <c r="O77" s="96"/>
       <c r="P77" s="30"/>
-      <c r="Q77" s="95"/>
-      <c r="R77" s="96"/>
-      <c r="S77" s="97"/>
+      <c r="Q77" s="94"/>
+      <c r="R77" s="95"/>
+      <c r="S77" s="96"/>
     </row>
     <row r="78" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="30"/>
@@ -3599,27 +3596,27 @@
       <c r="B79" s="23">
         <v>21</v>
       </c>
-      <c r="C79" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="94"/>
-      <c r="E79" s="94"/>
+      <c r="C79" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
       <c r="F79" s="30"/>
       <c r="G79" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H79" s="22"/>
       <c r="I79" s="31"/>
       <c r="J79" s="22"/>
       <c r="K79" s="31"/>
       <c r="L79" s="30"/>
-      <c r="M79" s="95"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="97"/>
+      <c r="M79" s="94"/>
+      <c r="N79" s="95"/>
+      <c r="O79" s="96"/>
       <c r="P79" s="30"/>
-      <c r="Q79" s="95"/>
-      <c r="R79" s="96"/>
-      <c r="S79" s="97"/>
+      <c r="Q79" s="94"/>
+      <c r="R79" s="95"/>
+      <c r="S79" s="96"/>
     </row>
     <row r="80" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="23"/>
@@ -3630,27 +3627,27 @@
       <c r="B81" s="23">
         <v>22</v>
       </c>
-      <c r="C81" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="94"/>
-      <c r="E81" s="94"/>
+      <c r="C81" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="100"/>
+      <c r="E81" s="100"/>
       <c r="F81" s="30"/>
       <c r="G81" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H81" s="22"/>
       <c r="I81" s="31"/>
       <c r="J81" s="22"/>
       <c r="K81" s="31"/>
       <c r="L81" s="30"/>
-      <c r="M81" s="95"/>
-      <c r="N81" s="96"/>
-      <c r="O81" s="97"/>
+      <c r="M81" s="94"/>
+      <c r="N81" s="95"/>
+      <c r="O81" s="96"/>
       <c r="P81" s="30"/>
-      <c r="Q81" s="95"/>
-      <c r="R81" s="96"/>
-      <c r="S81" s="97"/>
+      <c r="Q81" s="94"/>
+      <c r="R81" s="95"/>
+      <c r="S81" s="96"/>
     </row>
     <row r="82" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="23"/>
@@ -3661,27 +3658,27 @@
       <c r="B83" s="23">
         <v>23</v>
       </c>
-      <c r="C83" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="94"/>
-      <c r="E83" s="94"/>
+      <c r="C83" s="100" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="100"/>
+      <c r="E83" s="100"/>
       <c r="F83" s="30"/>
       <c r="G83" s="31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H83" s="22"/>
       <c r="I83" s="31"/>
       <c r="J83" s="22"/>
       <c r="K83" s="31"/>
       <c r="L83" s="30"/>
-      <c r="M83" s="95"/>
-      <c r="N83" s="96"/>
-      <c r="O83" s="97"/>
+      <c r="M83" s="94"/>
+      <c r="N83" s="95"/>
+      <c r="O83" s="96"/>
       <c r="P83" s="30"/>
-      <c r="Q83" s="95"/>
-      <c r="R83" s="96"/>
-      <c r="S83" s="97"/>
+      <c r="Q83" s="94"/>
+      <c r="R83" s="95"/>
+      <c r="S83" s="96"/>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84" s="23"/>
@@ -3704,33 +3701,33 @@
       <c r="S84" s="33"/>
     </row>
     <row r="85" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="109"/>
-      <c r="C85" s="109"/>
-      <c r="D85" s="109"/>
-      <c r="E85" s="109"/>
-      <c r="F85" s="109"/>
-      <c r="G85" s="109"/>
-      <c r="H85" s="109"/>
-      <c r="I85" s="109"/>
-      <c r="J85" s="109"/>
-      <c r="K85" s="109"/>
-      <c r="L85" s="109"/>
-      <c r="M85" s="109"/>
-      <c r="N85" s="109"/>
-      <c r="O85" s="109"/>
-      <c r="P85" s="109"/>
-      <c r="Q85" s="109"/>
-      <c r="R85" s="109"/>
-      <c r="S85" s="109"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="93"/>
+      <c r="J85" s="93"/>
+      <c r="K85" s="93"/>
+      <c r="L85" s="93"/>
+      <c r="M85" s="93"/>
+      <c r="N85" s="93"/>
+      <c r="O85" s="93"/>
+      <c r="P85" s="93"/>
+      <c r="Q85" s="93"/>
+      <c r="R85" s="93"/>
+      <c r="S85" s="93"/>
     </row>
     <row r="86" spans="2:19" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="2:19" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" s="111"/>
-      <c r="D87" s="111"/>
-      <c r="E87" s="111"/>
+      <c r="B87" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="98"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
       <c r="G87" s="4">
         <f>COUNTA(G33:G84)</f>
         <v>23</v>
@@ -3745,35 +3742,112 @@
         <f>COUNTA(K33,K39,K37,K35,K41,K43,K45,K49,K51,K53,K55,K57)</f>
         <v>0</v>
       </c>
-      <c r="M87" s="110"/>
-      <c r="N87" s="110"/>
-      <c r="O87" s="110"/>
-      <c r="Q87" s="110"/>
-      <c r="R87" s="110"/>
-      <c r="S87" s="110"/>
+      <c r="M87" s="97"/>
+      <c r="N87" s="97"/>
+      <c r="O87" s="97"/>
+      <c r="Q87" s="97"/>
+      <c r="R87" s="97"/>
+      <c r="S87" s="97"/>
     </row>
     <row r="89" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="109"/>
-      <c r="C89" s="109"/>
-      <c r="D89" s="109"/>
-      <c r="E89" s="109"/>
-      <c r="F89" s="109"/>
-      <c r="G89" s="109"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="109"/>
-      <c r="J89" s="109"/>
-      <c r="K89" s="109"/>
-      <c r="L89" s="109"/>
-      <c r="M89" s="109"/>
-      <c r="N89" s="109"/>
-      <c r="O89" s="109"/>
-      <c r="P89" s="109"/>
-      <c r="Q89" s="109"/>
-      <c r="R89" s="109"/>
-      <c r="S89" s="109"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="93"/>
+      <c r="J89" s="93"/>
+      <c r="K89" s="93"/>
+      <c r="L89" s="93"/>
+      <c r="M89" s="93"/>
+      <c r="N89" s="93"/>
+      <c r="O89" s="93"/>
+      <c r="P89" s="93"/>
+      <c r="Q89" s="93"/>
+      <c r="R89" s="93"/>
+      <c r="S89" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="Q77:S77"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="M75:O75"/>
+    <mergeCell ref="Q75:S75"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="Q71:S71"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="M69:O69"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="D9:Q9"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="D13:Q13"/>
+    <mergeCell ref="D17:Q17"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D15:Q15"/>
+    <mergeCell ref="B26:S26"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D23:Q23"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="C40:E40"/>
     <mergeCell ref="B85:S85"/>
     <mergeCell ref="M53:O53"/>
     <mergeCell ref="Q53:S53"/>
@@ -3798,83 +3872,6 @@
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="M65:O65"/>
     <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="D9:Q9"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="D13:Q13"/>
-    <mergeCell ref="D17:Q17"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D15:Q15"/>
-    <mergeCell ref="B26:S26"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="M73:O73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="Q75:S75"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="Q71:S71"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="M69:O69"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="M81:O81"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="M77:O77"/>
-    <mergeCell ref="Q77:S77"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="Q79:S79"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D21">
@@ -3930,7 +3927,7 @@
     <row r="1" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="78" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="78" t="s">
         <v>10</v>
@@ -3941,111 +3938,111 @@
         <v>20</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="79" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="79" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="79" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="79" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="79" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="79" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="79" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B14" s="79" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="79" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4066,12 +4063,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EBA1F2086E17D24B86D4789C674F2AFA" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c342d639b7f59eaadc9db5c4c0dcd9e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4759192b-5e07-4d9f-ab7b-4804c764d4ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf7fa621faa07335f5254bb976de61d3" ns2:_="">
     <xsd:import namespace="4759192b-5e07-4d9f-ab7b-4804c764d4ec"/>
@@ -4239,6 +4230,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79CDE113-B595-449C-B964-AD56092BFC38}">
   <ds:schemaRefs>
@@ -4248,15 +4245,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7191DC91-F72D-4932-ACB5-342D8896CDA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE562D8-452A-4C70-BEF8-3E48E1CE7936}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4272,4 +4260,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7191DC91-F72D-4932-ACB5-342D8896CDA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>